--- a/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 5_it_IT.xlsx
+++ b/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 5_it_IT.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:K242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B79" sqref="B79:B83"/>
@@ -504,18 +504,23 @@
           <t>ms280_title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ms280_title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Mission de M. le Conte de Limburg Stirum (Missione del $Limburg)</t>
         </is>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>1826</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>1829</v>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -527,18 +532,23 @@
           <t>ms280_6_title</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ms280_title</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Mission de M. le Conte de Limburg Stirum (Missione del $Limburg)</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1826</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1829</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -550,12 +560,17 @@
           <t>ms280_6_00</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ms280_6_00</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Mission de M. le Conte de Limburg Stirum (Missione del $Limburg)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -567,31 +582,36 @@
           <t>ms280_6_1</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ms280_6_1</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1826</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>12</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>30</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -603,31 +623,36 @@
           <t>ms280_6_2</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ms280_6_1</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1826</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>12</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>30</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -639,31 +664,36 @@
           <t>ms280_6_3</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ms280_6_3</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1827</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>16</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -675,31 +705,36 @@
           <t>ms280_6_4</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ms280_6_3</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1827</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>16</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -711,31 +746,36 @@
           <t>ms280_6_5</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ms280_6_5</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1827</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>23</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -747,31 +787,36 @@
           <t>ms280_6_6</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ms280_6_5</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1827</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>23</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -783,31 +828,36 @@
           <t>ms280_6_7</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ms280_6_7</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1827</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>27</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -819,31 +869,36 @@
           <t>ms280_6_8</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ms280_6_8</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1827</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>8</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -855,31 +910,36 @@
           <t>ms280_6_9</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ms280_6_8</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1827</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>8</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -891,31 +951,36 @@
           <t>ms280_6_10</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ms280_6_8</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1827</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>8</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -927,31 +992,36 @@
           <t>ms280_6_11</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ms280_6_11</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>1827</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>14</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -963,26 +1033,31 @@
           <t>ms280_6_12</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ms280_6_12</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Beechman</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1827</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>6</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Mons</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>$Beechman</t>
         </is>
@@ -994,26 +1069,31 @@
           <t>ms280_6_13</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ms280_6_12</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Beechman</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>1827</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>6</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Mons</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>$Beechman</t>
         </is>
@@ -1025,7 +1105,12 @@
           <t>ms280_6_14</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ms280_6_14</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1037,31 +1122,36 @@
           <t>ms280_6_15</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ms280_6_15</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>1827</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>10</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1073,31 +1163,36 @@
           <t>ms280_6_16</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ms280_6_15</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>1827</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>3</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>10</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1109,31 +1204,36 @@
           <t>ms280_6_17</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ms280_6_17</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1827</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>10</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1145,31 +1245,36 @@
           <t>ms280_6_18</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ms280_6_18</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Trascrizione di $LeClercq di una lettera di $Elout al $Soelen</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>1827</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>4</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>6</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>$LeClercq; $Elout</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>$Soelen</t>
         </is>
@@ -1181,31 +1286,36 @@
           <t>ms280_6_19</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ms280_6_18</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>Trascrizione di $LeClercq di una lettera di $Elout al $Soelen</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>1827</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>4</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>6</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>$LeClercq; $Elout</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>$Soelen</t>
         </is>
@@ -1217,7 +1327,12 @@
           <t>ms280_6_20</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ms280_6_20</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1229,31 +1344,36 @@
           <t>ms280_6_21</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ms280_6_21</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>1827</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>11</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1265,26 +1385,31 @@
           <t>ms280_6_22</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ms280_6_22</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Lettera di $Vredenburch</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>1827</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>4</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Middelburg</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>$Vredenburch</t>
         </is>
@@ -1296,26 +1421,31 @@
           <t>ms280_6_23</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ms280_6_22</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Lettera di $Vredenburch</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>1827</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>4</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Middelburg</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>$Vredenburch</t>
         </is>
@@ -1327,26 +1457,31 @@
           <t>ms280_6_24</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ms280_6_24</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Lettera di $Vredenburch</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>1827</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>5</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Middelburg</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>$Vredenburch</t>
         </is>
@@ -1358,7 +1493,12 @@
           <t>ms280_6_25</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ms280_6_25</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1370,31 +1510,36 @@
           <t>ms280_6_26</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ms280_6_26</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>1827</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>12</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1406,31 +1551,36 @@
           <t>ms280_6_27</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ms280_6_26</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>1827</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>5</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>12</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1442,31 +1592,36 @@
           <t>ms280_6_28</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ms280_6_28</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>1827</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>5</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>7</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1478,26 +1633,31 @@
           <t>ms280_6_29</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ms280_6_29</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Lettera del $Limburg</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>1827</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>5</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>11</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Mons</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -1509,26 +1669,31 @@
           <t>ms280_6_30</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ms280_6_29</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Lettera del $Limburg</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>1827</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>5</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>11</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Mons</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -1540,31 +1705,36 @@
           <t>ms280_6_31</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ms280_6_31</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>1827</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>6</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>5</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1576,31 +1746,36 @@
           <t>ms280_6_32</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ms280_6_31</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>1827</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>6</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>5</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1612,31 +1787,36 @@
           <t>ms280_6_33</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ms280_6_33</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>1827</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>6</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>9</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -1648,7 +1828,12 @@
           <t>ms280_6_34</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ms280_6_34</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -1660,31 +1845,36 @@
           <t>ms280_6_35</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ms280_6_35</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>1827</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>6</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>10</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -1696,7 +1886,12 @@
           <t>ms280_6_36</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ms280_6_36</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -1708,31 +1903,36 @@
           <t>ms280_6_37</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ms280_6_37</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>1827</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>7</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -1744,7 +1944,12 @@
           <t>ms280_6_38</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ms280_6_38</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -1756,7 +1961,12 @@
           <t>ms280_6_39</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ms280_6_39</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1768,31 +1978,36 @@
           <t>ms280_6_40</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ms280_6_40</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>1827</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -1804,31 +2019,36 @@
           <t>ms280_6_41</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ms280_6_40</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>1827</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>7</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>2</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -1840,31 +2060,36 @@
           <t>ms280_6_42</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ms280_6_42</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>1827</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>8</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>4</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -1876,7 +2101,12 @@
           <t>ms280_6_43</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ms280_6_43</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -1888,7 +2118,12 @@
           <t>ms280_6_44</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ms280_6_44</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1900,7 +2135,12 @@
           <t>ms280_6_45</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ms280_6_44</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1912,31 +2152,36 @@
           <t>ms280_6_46</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ms280_6_46</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>1827</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>8</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>24</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -1948,12 +2193,17 @@
           <t>ms280_6_47</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ms280_6_47</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Copia di lettera di $Witterhaeven</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>$Witterhaeven</t>
         </is>
@@ -1965,12 +2215,17 @@
           <t>ms280_6_48</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ms280_6_47</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Copia di lettera di $Witterhaeven</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>$Witterhaeven</t>
         </is>
@@ -1982,7 +2237,12 @@
           <t>ms280_6_49</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ms280_6_49</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -1994,7 +2254,12 @@
           <t>ms280_6_50</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ms280_6_49</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -2006,31 +2271,36 @@
           <t>ms280_6_51</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ms280_6_51</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>1827</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>8</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>25</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -2042,26 +2312,31 @@
           <t>ms280_6_52</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ms280_6_52</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>1927</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>8</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>18</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
@@ -2073,26 +2348,31 @@
           <t>ms280_6_53</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ms280_6_52</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>1927</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>18</v>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
@@ -2104,26 +2384,31 @@
           <t>ms280_6_54</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ms280_6_52</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>1927</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>8</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>18</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
@@ -2135,31 +2420,36 @@
           <t>ms280_6_55</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ms280_6_55</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parole cifrate</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>1827</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>9</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>4</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -2171,31 +2461,36 @@
           <t>ms280_6_56</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ms280_6_56</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parole cifrate e nota di ricezione dei dispacci diplomatici</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>1827</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>9</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>4</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -2207,7 +2502,12 @@
           <t>ms280_6_57</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ms280_6_57</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2219,31 +2519,36 @@
           <t>ms280_6_58</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ms280_6_58</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>1827</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>9</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>18</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -2255,26 +2560,31 @@
           <t>ms280_6_59</t>
         </is>
       </c>
-      <c r="B62" s="5" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ms280_6_59</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>1927</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>9</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>11</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
@@ -2286,7 +2596,12 @@
           <t>ms280_6_60</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ms280_6_60</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2298,31 +2613,36 @@
           <t>ms280_6_61</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ms280_6_61</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>1827</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>9</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>24</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -2334,7 +2654,12 @@
           <t>ms280_6_62</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ms280_6_62</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -2346,7 +2671,12 @@
           <t>ms280_6_63</t>
         </is>
       </c>
-      <c r="B66" s="5" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ms280_6_63</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2358,31 +2688,36 @@
           <t>ms280_6_64</t>
         </is>
       </c>
-      <c r="B67" s="5" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ms280_6_64</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>1827</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>10</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>27</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -2394,21 +2729,26 @@
           <t>ms280_6_65</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ms280_6_65</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
         <is>
           <t>Minuta di lettera</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>1827</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>10</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>26</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
@@ -2420,21 +2760,26 @@
           <t>ms280_6_66</t>
         </is>
       </c>
-      <c r="B69" s="5" t="inlineStr">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ms280_6_65</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>Minuta di lettera</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>1827</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>10</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>26</v>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
@@ -2446,7 +2791,12 @@
           <t>ms280_6_67</t>
         </is>
       </c>
-      <c r="B70" s="5" t="inlineStr">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ms280_6_67</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2458,7 +2808,12 @@
           <t>ms280_6_68</t>
         </is>
       </c>
-      <c r="B71" s="5" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ms280_6_67</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2470,31 +2825,36 @@
           <t>ms280_6_69</t>
         </is>
       </c>
-      <c r="B72" s="5" t="inlineStr">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ms280_6_69</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>1827</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>10</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>15</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Larçay</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -2506,7 +2866,12 @@
           <t>ms280_6_70</t>
         </is>
       </c>
-      <c r="B73" s="5" t="inlineStr">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ms280_6_70</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -2518,26 +2883,31 @@
           <t>ms280_6_71a</t>
         </is>
       </c>
-      <c r="B74" s="1" t="inlineStr">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ms280_6_71a</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
         <is>
           <t>Discorso dal Trono di $OranjeWI (a stampa)</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>1827</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>10</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>15</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>$OranjeWI</t>
         </is>
@@ -2549,26 +2919,31 @@
           <t>ms280_6_71b</t>
         </is>
       </c>
-      <c r="B75" s="1" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ms280_6_71a</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
         <is>
           <t>Discorso dal Trono di $OranjeWI (a stampa)</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>1827</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>10</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>15</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>$OranjeWI</t>
         </is>
@@ -2580,7 +2955,12 @@
           <t>ms280_6_72</t>
         </is>
       </c>
-      <c r="B76" s="5" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ms280_6_72</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2592,26 +2972,31 @@
           <t>ms280_6_73</t>
         </is>
       </c>
-      <c r="B77" s="5" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ms280_6_73</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
         <is>
           <t>Lettera di $HoevenE</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>1827</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>11</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>24</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Voorschoten</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2623,31 +3008,36 @@
           <t>ms280_6_74</t>
         </is>
       </c>
-      <c r="B78" s="5" t="inlineStr">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ms280_6_74</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>1827</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>11</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>23</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2659,7 +3049,12 @@
           <t>ms280_6_75</t>
         </is>
       </c>
-      <c r="B79" s="5" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ms280_6_75</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
         <is>
           <t>Osservations Préliminaires</t>
         </is>
@@ -2671,7 +3066,12 @@
           <t>ms280_6_76</t>
         </is>
       </c>
-      <c r="B80" s="5" t="inlineStr">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ms280_6_75</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
         <is>
           <t>Osservations Préliminaires</t>
         </is>
@@ -2683,7 +3083,12 @@
           <t>ms280_6_77</t>
         </is>
       </c>
-      <c r="B81" s="5" t="inlineStr">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ms280_6_75</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
         <is>
           <t>Osservations Préliminaires</t>
         </is>
@@ -2695,7 +3100,12 @@
           <t>ms280_6_78</t>
         </is>
       </c>
-      <c r="B82" s="5" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ms280_6_75</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
         <is>
           <t>Osservations Préliminaires</t>
         </is>
@@ -2707,7 +3117,12 @@
           <t>ms280_6_79</t>
         </is>
       </c>
-      <c r="B83" s="5" t="inlineStr">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ms280_6_75</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
         <is>
           <t>Osservations Préliminaires</t>
         </is>
@@ -2719,31 +3134,36 @@
           <t>ms280_6_80</t>
         </is>
       </c>
-      <c r="B84" s="5" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ms280_6_80</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>1827</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>11</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>1</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2755,31 +3175,36 @@
           <t>ms280_6_81</t>
         </is>
       </c>
-      <c r="B85" s="5" t="inlineStr">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ms280_6_80</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>1827</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>11</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>1</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2791,7 +3216,12 @@
           <t>ms280_6_82</t>
         </is>
       </c>
-      <c r="B86" s="5" t="inlineStr">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ms280_6_82</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2803,26 +3233,31 @@
           <t>ms280_6_83</t>
         </is>
       </c>
-      <c r="B87" s="5" t="inlineStr">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ms280_6_83</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>1827</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>11</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>19</v>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -2834,7 +3269,12 @@
           <t>ms280_6_84</t>
         </is>
       </c>
-      <c r="B88" s="5" t="inlineStr">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ms280_6_84</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -2846,7 +3286,12 @@
           <t>ms280_6_85</t>
         </is>
       </c>
-      <c r="B89" s="5" t="inlineStr">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ms280_6_85</t>
+        </is>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2858,31 +3303,36 @@
           <t>ms280_6_86</t>
         </is>
       </c>
-      <c r="B90" s="5" t="inlineStr">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ms280_6_86</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $HoevenE</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>1827</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>11</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>1</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>$HoevenE</t>
         </is>
@@ -2894,7 +3344,12 @@
           <t>ms280_6_87</t>
         </is>
       </c>
-      <c r="B91" s="5" t="inlineStr">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ms280_6_87</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
         <is>
           <t>Memoria sui negoziati con il Regno di Sardegna</t>
         </is>
@@ -2906,7 +3361,12 @@
           <t>ms280_6_88</t>
         </is>
       </c>
-      <c r="B92" s="5" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ms280_6_87</t>
+        </is>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
         <is>
           <t>Memoria sui negoziati con il Regno di Sardegna</t>
         </is>
@@ -2918,7 +3378,12 @@
           <t>ms280_6_89</t>
         </is>
       </c>
-      <c r="B93" s="5" t="inlineStr">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ms280_6_87</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
         <is>
           <t>Memoria sui negoziati con il Regno di Sardegna</t>
         </is>
@@ -2930,7 +3395,12 @@
           <t>ms280_6_90</t>
         </is>
       </c>
-      <c r="B94" s="5" t="inlineStr">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ms280_6_87</t>
+        </is>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
         <is>
           <t>Memoria sui negoziati con il Regno di Sardegna</t>
         </is>
@@ -2942,7 +3412,12 @@
           <t>ms280_6_91</t>
         </is>
       </c>
-      <c r="B95" s="5" t="inlineStr">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ms280_6_87</t>
+        </is>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
         <is>
           <t>Memoria sui negoziati con il Regno di Sardegna</t>
         </is>
@@ -2954,31 +3429,36 @@
           <t>ms280_6_92</t>
         </is>
       </c>
-      <c r="B96" s="5" t="inlineStr">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ms280_6_92</t>
+        </is>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>1827</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>12</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>14</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -2990,26 +3470,31 @@
           <t>ms280_6_93</t>
         </is>
       </c>
-      <c r="B97" s="5" t="inlineStr">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ms280_6_93</t>
+        </is>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
         <is>
           <t>Trascrizione della lettera di $Bighini</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>1827</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>11</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>28</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>$Bighini</t>
         </is>
@@ -3021,21 +3506,26 @@
           <t>ms280_6_94</t>
         </is>
       </c>
-      <c r="B98" s="5" t="inlineStr">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ms280_6_94</t>
+        </is>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
         <is>
           <t>Minuta di risposta</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>1827</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>12</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>28</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Genova</t>
         </is>
@@ -3047,7 +3537,12 @@
           <t>ms280_6_94b</t>
         </is>
       </c>
-      <c r="B99" s="5" t="inlineStr">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ms280_6_94b</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3059,7 +3554,12 @@
           <t>ms280_6_95</t>
         </is>
       </c>
-      <c r="B100" s="5" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ms280_6_94b</t>
+        </is>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3071,31 +3571,36 @@
           <t>ms280_6_96</t>
         </is>
       </c>
-      <c r="B101" s="5" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ms280_6_96</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>1827</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>8</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>2</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3107,7 +3612,12 @@
           <t>ms280_6_97</t>
         </is>
       </c>
-      <c r="B102" s="5" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ms280_6_97</t>
+        </is>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -3119,7 +3629,12 @@
           <t>ms280_6_98</t>
         </is>
       </c>
-      <c r="B103" s="5" t="inlineStr">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ms280_6_98</t>
+        </is>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3131,31 +3646,36 @@
           <t>ms280_6_99</t>
         </is>
       </c>
-      <c r="B104" s="5" t="inlineStr">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ms280_6_99</t>
+        </is>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>1827</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>12</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>20</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H104" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3167,15 +3687,20 @@
           <t>ms280_6_100</t>
         </is>
       </c>
-      <c r="B105" s="1" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ms280_6_100</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
         <is>
           <t>Trascrizione di una dichiarazione del $Limburg</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>1828</v>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3187,21 +3712,26 @@
           <t>ms280_6_101</t>
         </is>
       </c>
-      <c r="B106" s="1" t="inlineStr">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ms280_6_101</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
         <is>
           <t>Trascrizione di una dichiarazione del $Limburg</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>1828</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>2</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>14</v>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3213,26 +3743,31 @@
           <t>ms280_6_102</t>
         </is>
       </c>
-      <c r="B107" s="5" t="inlineStr">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ms280_6_102</t>
+        </is>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
         <is>
           <t>Disposizioni Generali da osservarsi "par les envoyès et consuls à l'ètranger" (a stampa) sottoscritto $NagellAWC</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>1818</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>3</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>28</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>$NagellAWC</t>
         </is>
@@ -3244,26 +3779,31 @@
           <t>ms280_6_103</t>
         </is>
       </c>
-      <c r="B108" s="5" t="inlineStr">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ms280_6_102</t>
+        </is>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
         <is>
           <t>Disposizioni Generali da osservarsi "par les envoyès et consuls à l'ètranger" (a stampa) sottoscritto $NagellAWC</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>1818</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>3</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>28</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>$NagellAWC</t>
         </is>
@@ -3275,26 +3815,31 @@
           <t>ms280_6_104</t>
         </is>
       </c>
-      <c r="B109" s="5" t="inlineStr">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ms280_6_102</t>
+        </is>
+      </c>
+      <c r="C109" s="5" t="inlineStr">
         <is>
           <t>Disposizioni Generali da osservarsi "par les envoyès et consuls à l'ètranger" (a stampa) sottoscritto $NagellAWC</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>1818</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>3</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>28</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>$NagellAWC</t>
         </is>
@@ -3306,26 +3851,31 @@
           <t>ms280_6_105</t>
         </is>
       </c>
-      <c r="B110" s="5" t="inlineStr">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ms280_6_102</t>
+        </is>
+      </c>
+      <c r="C110" s="5" t="inlineStr">
         <is>
           <t>Disposizioni Generali da osservarsi "par les envoyès et consuls à l'ètranger" (a stampa) sottoscritto $NagellAWC</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>1818</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>3</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>28</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>$NagellAWC</t>
         </is>
@@ -3337,26 +3887,31 @@
           <t>ms280_6_106</t>
         </is>
       </c>
-      <c r="B111" s="5" t="inlineStr">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ms280_6_102</t>
+        </is>
+      </c>
+      <c r="C111" s="5" t="inlineStr">
         <is>
           <t>Disposizioni Generali da osservarsi "par les envoyès et consuls à l'ètranger" (a stampa) sottoscritto $NagellAWC</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>1818</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>3</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>28</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>$NagellAWC</t>
         </is>
@@ -3368,12 +3923,17 @@
           <t>ms280_6_107</t>
         </is>
       </c>
-      <c r="B112" s="1" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ms280_6_107</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
         <is>
           <t>Registro dei dispacci arrivati</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>1828</v>
       </c>
     </row>
@@ -3383,12 +3943,17 @@
           <t>ms280_6_108</t>
         </is>
       </c>
-      <c r="B113" s="1" t="inlineStr">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ms280_6_107</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
         <is>
           <t>Registro dei dispacci arrivati</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>1828</v>
       </c>
     </row>
@@ -3398,31 +3963,36 @@
           <t>ms280_6_109</t>
         </is>
       </c>
-      <c r="B114" s="5" t="inlineStr">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ms280_6_109</t>
+        </is>
+      </c>
+      <c r="C114" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>1828</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>1</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>7</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H114" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3434,31 +4004,36 @@
           <t>ms280_6_110</t>
         </is>
       </c>
-      <c r="B115" s="5" t="inlineStr">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ms280_6_109</t>
+        </is>
+      </c>
+      <c r="C115" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>1828</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>1</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>7</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H115" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3470,31 +4045,36 @@
           <t>ms280_6_111</t>
         </is>
       </c>
-      <c r="B116" s="5" t="inlineStr">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ms280_6_111</t>
+        </is>
+      </c>
+      <c r="C116" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>1828</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>1</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>10</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H116" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3506,31 +4086,36 @@
           <t>ms280_6_112</t>
         </is>
       </c>
-      <c r="B117" s="5" t="inlineStr">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ms280_6_112</t>
+        </is>
+      </c>
+      <c r="C117" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>1828</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>2</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>16</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H117" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3542,31 +4127,36 @@
           <t>ms280_6_113</t>
         </is>
       </c>
-      <c r="B118" s="5" t="inlineStr">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ms280_6_112</t>
+        </is>
+      </c>
+      <c r="C118" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>1828</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>2</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>16</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H118" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3578,7 +4168,12 @@
           <t>ms280_6_114</t>
         </is>
       </c>
-      <c r="B119" s="5" t="inlineStr">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ms280_6_114</t>
+        </is>
+      </c>
+      <c r="C119" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -3590,31 +4185,36 @@
           <t>ms280_6_115</t>
         </is>
       </c>
-      <c r="B120" s="5" t="inlineStr">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ms280_6_115</t>
+        </is>
+      </c>
+      <c r="C120" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>1828</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>2</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>16</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H120" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3626,31 +4226,36 @@
           <t>ms280_6_116</t>
         </is>
       </c>
-      <c r="B121" s="5" t="inlineStr">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ms280_6_116</t>
+        </is>
+      </c>
+      <c r="C121" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>1829</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>2</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>16</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H121" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3662,7 +4267,12 @@
           <t>ms280_6_117</t>
         </is>
       </c>
-      <c r="B122" s="5" t="inlineStr">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ms280_6_117</t>
+        </is>
+      </c>
+      <c r="C122" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -3674,7 +4284,12 @@
           <t>ms280_6_118</t>
         </is>
       </c>
-      <c r="B123" s="5" t="inlineStr">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ms280_6_118</t>
+        </is>
+      </c>
+      <c r="C123" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3686,31 +4301,36 @@
           <t>ms280_6_119</t>
         </is>
       </c>
-      <c r="B124" s="5" t="inlineStr">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ms280_6_119</t>
+        </is>
+      </c>
+      <c r="C124" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>1829</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>3</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>7</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H124" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3722,18 +4342,23 @@
           <t>ms280_6_120</t>
         </is>
       </c>
-      <c r="B125" s="5" t="inlineStr">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ms280_6_120</t>
+        </is>
+      </c>
+      <c r="C125" s="5" t="inlineStr">
         <is>
           <t>Minuta di risposta</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>1829</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>5</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3743,7 +4368,12 @@
           <t>ms280_6_120b</t>
         </is>
       </c>
-      <c r="B126" s="5" t="inlineStr">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ms280_6_120b</t>
+        </is>
+      </c>
+      <c r="C126" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -3755,7 +4385,12 @@
           <t>ms280_6_121</t>
         </is>
       </c>
-      <c r="B127" s="5" t="inlineStr">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ms280_6_121</t>
+        </is>
+      </c>
+      <c r="C127" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3767,31 +4402,36 @@
           <t>ms280_6_122</t>
         </is>
       </c>
-      <c r="B128" s="5" t="inlineStr">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ms280_6_122</t>
+        </is>
+      </c>
+      <c r="C128" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>1829</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>3</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>11</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H128" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3803,12 +4443,17 @@
           <t>ms280_6_123</t>
         </is>
       </c>
-      <c r="B129" s="1" t="inlineStr">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ms280_6_123</t>
+        </is>
+      </c>
+      <c r="C129" s="1" t="inlineStr">
         <is>
           <t>Dichiarazione</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>1829</v>
       </c>
     </row>
@@ -3818,26 +4463,31 @@
           <t>ms280_6_124</t>
         </is>
       </c>
-      <c r="B130" s="5" t="inlineStr">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ms280_6_124</t>
+        </is>
+      </c>
+      <c r="C130" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>1829</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>2</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>23</v>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
@@ -3849,21 +4499,26 @@
           <t>ms280_6_125</t>
         </is>
       </c>
-      <c r="B131" s="5" t="inlineStr">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ms280_6_125</t>
+        </is>
+      </c>
+      <c r="C131" s="5" t="inlineStr">
         <is>
           <t>Dichiarazione del $Limburg</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>1828</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>12</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>31</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3875,7 +4530,12 @@
           <t>ms280_6_126</t>
         </is>
       </c>
-      <c r="B132" s="5" t="inlineStr">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ms280_6_126</t>
+        </is>
+      </c>
+      <c r="C132" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3887,7 +4547,12 @@
           <t>ms280_6_127</t>
         </is>
       </c>
-      <c r="B133" s="5" t="inlineStr">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ms280_6_126</t>
+        </is>
+      </c>
+      <c r="C133" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3899,26 +4564,31 @@
           <t>ms280_6_128</t>
         </is>
       </c>
-      <c r="B134" s="5" t="inlineStr">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ms280_6_128</t>
+        </is>
+      </c>
+      <c r="C134" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>1829</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>3</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>16</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3930,26 +4600,31 @@
           <t>ms280_6_129</t>
         </is>
       </c>
-      <c r="B135" s="5" t="inlineStr">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ms280_6_128</t>
+        </is>
+      </c>
+      <c r="C135" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>1829</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>3</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>16</v>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3961,26 +4636,31 @@
           <t>ms280_6_130</t>
         </is>
       </c>
-      <c r="B136" s="5" t="inlineStr">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ms280_6_128</t>
+        </is>
+      </c>
+      <c r="C136" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>1829</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>3</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>16</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -3992,31 +4672,36 @@
           <t>ms280_6_131</t>
         </is>
       </c>
-      <c r="B137" s="5" t="inlineStr">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ms280_6_131</t>
+        </is>
+      </c>
+      <c r="C137" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>1829</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>3</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>11</v>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H137" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4028,31 +4713,36 @@
           <t>ms280_6_132</t>
         </is>
       </c>
-      <c r="B138" s="5" t="inlineStr">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ms280_6_132</t>
+        </is>
+      </c>
+      <c r="C138" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>1829</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>3</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>18</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H138" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4064,7 +4754,12 @@
           <t>ms280_6_133</t>
         </is>
       </c>
-      <c r="B139" s="5" t="inlineStr">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ms280_6_133</t>
+        </is>
+      </c>
+      <c r="C139" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4076,31 +4771,36 @@
           <t>ms280_6_134</t>
         </is>
       </c>
-      <c r="B140" s="5" t="inlineStr">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ms280_6_134</t>
+        </is>
+      </c>
+      <c r="C140" s="5" t="inlineStr">
         <is>
           <t>Lettera circolare del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>1829</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>3</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>19</v>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H140" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4112,31 +4812,36 @@
           <t>ms280_6_135</t>
         </is>
       </c>
-      <c r="B141" s="5" t="inlineStr">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ms280_6_134</t>
+        </is>
+      </c>
+      <c r="C141" s="5" t="inlineStr">
         <is>
           <t>Lettera circolare del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>1829</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>3</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>19</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H141" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4148,31 +4853,36 @@
           <t>ms280_6_136</t>
         </is>
       </c>
-      <c r="B142" s="5" t="inlineStr">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ms280_6_134</t>
+        </is>
+      </c>
+      <c r="C142" s="5" t="inlineStr">
         <is>
           <t>Lettera circolare del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>1829</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>3</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>19</v>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H142" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4184,31 +4894,36 @@
           <t>ms280_6_137</t>
         </is>
       </c>
-      <c r="B143" s="5" t="inlineStr">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ms280_6_134</t>
+        </is>
+      </c>
+      <c r="C143" s="5" t="inlineStr">
         <is>
           <t>Lettera circolare del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>1829</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>3</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>19</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H143" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4220,31 +4935,36 @@
           <t>ms280_6_138</t>
         </is>
       </c>
-      <c r="B144" s="5" t="inlineStr">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ms280_6_138</t>
+        </is>
+      </c>
+      <c r="C144" s="5" t="inlineStr">
         <is>
           <t>Lettera circolare del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="D144" t="n">
         <v>1829</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>3</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>31</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H144" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4256,7 +4976,12 @@
           <t>ms280_6_139</t>
         </is>
       </c>
-      <c r="B145" s="5" t="inlineStr">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ms280_6_139</t>
+        </is>
+      </c>
+      <c r="C145" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -4268,12 +4993,17 @@
           <t>ms280_6_140</t>
         </is>
       </c>
-      <c r="B146" s="3" t="inlineStr">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ms280_6_140</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J146" s="6" t="n"/>
+      <c r="K146" s="6" t="n"/>
     </row>
     <row r="147" ht="16" customFormat="1" customHeight="1" s="6">
       <c r="A147" t="inlineStr">
@@ -4281,31 +5011,36 @@
           <t>ms280_6_141</t>
         </is>
       </c>
-      <c r="B147" s="5" t="inlineStr">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ms280_6_141</t>
+        </is>
+      </c>
+      <c r="C147" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>1829</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>4</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>29</v>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H147" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4317,26 +5052,31 @@
           <t>ms280_6_142</t>
         </is>
       </c>
-      <c r="B148" s="5" t="inlineStr">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ms280_6_142</t>
+        </is>
+      </c>
+      <c r="C148" s="5" t="inlineStr">
         <is>
           <t>Trascrizione di $Mazel di una lettera di $OranjeWI sottoscritta dal $Streefkerk e da $Hamecourt</t>
         </is>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
         <v>1829</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>4</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>29</v>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>$Mazel; $Hamecourt; $Streefkerk; $OranjeWI</t>
         </is>
@@ -4348,26 +5088,31 @@
           <t>ms280_6_143</t>
         </is>
       </c>
-      <c r="B149" s="5" t="inlineStr">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ms280_6_142</t>
+        </is>
+      </c>
+      <c r="C149" s="5" t="inlineStr">
         <is>
           <t>Trascrizione di $Mazel di una lettera di $OranjeWI sottoscritta dal $Streefkerk e da $Hamecourt</t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
         <v>1829</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>4</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>29</v>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>$Mazel; $Hamecourt; $Streefkerk; $OranjeWI</t>
         </is>
@@ -4379,26 +5124,31 @@
           <t>ms280_6_144</t>
         </is>
       </c>
-      <c r="B150" s="5" t="inlineStr">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ms280_6_142</t>
+        </is>
+      </c>
+      <c r="C150" s="5" t="inlineStr">
         <is>
           <t>Trascrizione di $Mazel di una lettera di $OranjeWI sottoscritta dal $Streefkerk e da $Hamecourt</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="D150" t="n">
         <v>1829</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>4</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>29</v>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>$Mazel; $Hamecourt; $Streefkerk; $OranjeWI</t>
         </is>
@@ -4410,31 +5160,36 @@
           <t>ms280_6_145</t>
         </is>
       </c>
-      <c r="B151" s="5" t="inlineStr">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ms280_6_145</t>
+        </is>
+      </c>
+      <c r="C151" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>1829</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>4</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>25</v>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H151" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4446,7 +5201,12 @@
           <t>ms280_6_146</t>
         </is>
       </c>
-      <c r="B152" s="5" t="inlineStr">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ms280_6_146</t>
+        </is>
+      </c>
+      <c r="C152" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -4458,31 +5218,36 @@
           <t>ms280_6_147</t>
         </is>
       </c>
-      <c r="B153" s="5" t="inlineStr">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ms280_6_147</t>
+        </is>
+      </c>
+      <c r="C153" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="D153" t="n">
         <v>1829</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>4</v>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>25</v>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H153" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4494,31 +5259,36 @@
           <t>ms280_6_148</t>
         </is>
       </c>
-      <c r="B154" s="5" t="inlineStr">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ms280_6_148</t>
+        </is>
+      </c>
+      <c r="C154" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="D154" t="n">
         <v>1829</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>4</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>29</v>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H154" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4530,31 +5300,36 @@
           <t>ms280_6_149</t>
         </is>
       </c>
-      <c r="B155" s="5" t="inlineStr">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ms280_6_148</t>
+        </is>
+      </c>
+      <c r="C155" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>1829</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>4</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>29</v>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H155" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4566,31 +5341,36 @@
           <t>ms280_6_150</t>
         </is>
       </c>
-      <c r="B156" s="5" t="inlineStr">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ms280_6_150</t>
+        </is>
+      </c>
+      <c r="C156" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="D156" t="n">
         <v>1829</v>
-      </c>
-      <c r="D156" t="n">
-        <v>5</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F156" t="n">
+        <v>5</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H156" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4602,31 +5382,36 @@
           <t>ms280_6_151</t>
         </is>
       </c>
-      <c r="B157" s="5" t="inlineStr">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ms280_6_150</t>
+        </is>
+      </c>
+      <c r="C157" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="D157" t="n">
         <v>1829</v>
-      </c>
-      <c r="D157" t="n">
-        <v>5</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" t="n">
+        <v>5</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H157" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4638,31 +5423,36 @@
           <t>ms280_6_152</t>
         </is>
       </c>
-      <c r="B158" s="5" t="inlineStr">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ms280_6_152</t>
+        </is>
+      </c>
+      <c r="C158" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>1829</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>5</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>16</v>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H158" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4674,31 +5464,36 @@
           <t>ms280_6_153</t>
         </is>
       </c>
-      <c r="B159" s="5" t="inlineStr">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ms280_6_152</t>
+        </is>
+      </c>
+      <c r="C159" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="D159" t="n">
         <v>1829</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>5</v>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>16</v>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H159" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4710,31 +5505,36 @@
           <t>ms280_6_154</t>
         </is>
       </c>
-      <c r="B160" s="5" t="inlineStr">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ms280_6_154</t>
+        </is>
+      </c>
+      <c r="C160" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="D160" t="n">
         <v>1829</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>11</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H160" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4746,7 +5546,12 @@
           <t>ms280_6_155</t>
         </is>
       </c>
-      <c r="B161" s="5" t="inlineStr">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ms280_6_155</t>
+        </is>
+      </c>
+      <c r="C161" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -4758,31 +5563,36 @@
           <t>ms280_6_156</t>
         </is>
       </c>
-      <c r="B162" s="5" t="inlineStr">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ms280_6_156</t>
+        </is>
+      </c>
+      <c r="C162" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C162" t="n">
+      <c r="D162" t="n">
         <v>1829</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>5</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>11</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H162" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4794,31 +5604,36 @@
           <t>ms280_6_157</t>
         </is>
       </c>
-      <c r="B163" s="5" t="inlineStr">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ms280_6_157</t>
+        </is>
+      </c>
+      <c r="C163" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="D163" t="n">
         <v>1829</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>5</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>30</v>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H163" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4830,31 +5645,36 @@
           <t>ms280_6_158</t>
         </is>
       </c>
-      <c r="B164" s="5" t="inlineStr">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ms280_6_157</t>
+        </is>
+      </c>
+      <c r="C164" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>1829</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>5</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>30</v>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H164" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4866,31 +5686,36 @@
           <t>ms280_6_159</t>
         </is>
       </c>
-      <c r="B165" s="5" t="inlineStr">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ms280_6_159</t>
+        </is>
+      </c>
+      <c r="C165" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="D165" t="n">
         <v>1829</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>5</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>29</v>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H165" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -4902,26 +5727,31 @@
           <t>ms280_6_160</t>
         </is>
       </c>
-      <c r="B166" s="5" t="inlineStr">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ms280_6_160</t>
+        </is>
+      </c>
+      <c r="C166" s="5" t="inlineStr">
         <is>
           <t>Lettera di $Willmar</t>
         </is>
       </c>
-      <c r="C166" t="n">
+      <c r="D166" t="n">
         <v>1829</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>4</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>7</v>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>Lussemburgo</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>$Willmar</t>
         </is>
@@ -4933,26 +5763,31 @@
           <t>ms280_6_161</t>
         </is>
       </c>
-      <c r="B167" s="5" t="inlineStr">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ms280_6_161</t>
+        </is>
+      </c>
+      <c r="C167" s="5" t="inlineStr">
         <is>
           <t>Lettera di $Jacob</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>1829</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>5</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>23</v>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>Florenville</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>$Jacob</t>
         </is>
@@ -4964,7 +5799,12 @@
           <t>ms280_6_162</t>
         </is>
       </c>
-      <c r="B168" s="5" t="inlineStr">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ms280_6_162</t>
+        </is>
+      </c>
+      <c r="C168" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4976,7 +5816,12 @@
           <t>ms280_6_163</t>
         </is>
       </c>
-      <c r="B169" s="5" t="inlineStr">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ms280_6_162</t>
+        </is>
+      </c>
+      <c r="C169" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4988,31 +5833,36 @@
           <t>ms280_6_164</t>
         </is>
       </c>
-      <c r="B170" s="5" t="inlineStr">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ms280_6_164</t>
+        </is>
+      </c>
+      <c r="C170" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="D170" t="n">
         <v>1829</v>
       </c>
-      <c r="D170" t="n">
+      <c r="E170" t="n">
         <v>5</v>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>30</v>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H170" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5024,7 +5874,12 @@
           <t>ms280_6_165</t>
         </is>
       </c>
-      <c r="B171" s="5" t="inlineStr">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ms280_6_165</t>
+        </is>
+      </c>
+      <c r="C171" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -5036,31 +5891,36 @@
           <t>ms280_6_166</t>
         </is>
       </c>
-      <c r="B172" s="5" t="inlineStr">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ms280_6_166</t>
+        </is>
+      </c>
+      <c r="C172" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>1829</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>5</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>19</v>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="I172" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5072,7 +5932,12 @@
           <t>ms280_6_167</t>
         </is>
       </c>
-      <c r="B173" s="5" t="inlineStr">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ms280_6_167</t>
+        </is>
+      </c>
+      <c r="C173" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -5084,12 +5949,17 @@
           <t>ms280_6_168</t>
         </is>
       </c>
-      <c r="B174" s="5" t="inlineStr">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ms280_6_168</t>
+        </is>
+      </c>
+      <c r="C174" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J174" s="6" t="n"/>
+      <c r="K174" s="6" t="n"/>
     </row>
     <row r="175" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A175" t="inlineStr">
@@ -5097,12 +5967,17 @@
           <t>ms280_6_169</t>
         </is>
       </c>
-      <c r="B175" s="5" t="inlineStr">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ms280_6_168</t>
+        </is>
+      </c>
+      <c r="C175" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J175" s="6" t="n"/>
+      <c r="K175" s="6" t="n"/>
     </row>
     <row r="176" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A176" t="inlineStr">
@@ -5110,12 +5985,17 @@
           <t>ms280_6_170</t>
         </is>
       </c>
-      <c r="B176" s="5" t="inlineStr">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ms280_6_168</t>
+        </is>
+      </c>
+      <c r="C176" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J176" s="6" t="n"/>
+      <c r="K176" s="6" t="n"/>
     </row>
     <row r="177" ht="16" customHeight="1" s="4">
       <c r="A177" t="inlineStr">
@@ -5123,31 +6003,36 @@
           <t>ms280_6_171</t>
         </is>
       </c>
-      <c r="B177" s="5" t="inlineStr">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ms280_6_171</t>
+        </is>
+      </c>
+      <c r="C177" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C177" t="n">
+      <c r="D177" t="n">
         <v>1829</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>6</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>16</v>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H177" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5159,7 +6044,12 @@
           <t>ms280_6_172</t>
         </is>
       </c>
-      <c r="B178" s="5" t="inlineStr">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ms280_6_172</t>
+        </is>
+      </c>
+      <c r="C178" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -5171,12 +6061,17 @@
           <t>ms280_6_173</t>
         </is>
       </c>
-      <c r="B179" s="5" t="inlineStr">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ms280_6_173</t>
+        </is>
+      </c>
+      <c r="C179" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J179" s="6" t="n"/>
+      <c r="K179" s="6" t="n"/>
     </row>
     <row r="180" ht="16" customHeight="1" s="4">
       <c r="A180" t="inlineStr">
@@ -5184,7 +6079,12 @@
           <t>ms280_6_174</t>
         </is>
       </c>
-      <c r="B180" s="5" t="inlineStr">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ms280_6_174</t>
+        </is>
+      </c>
+      <c r="C180" s="5" t="inlineStr">
         <is>
           <t>Registro dei dispacci giunti nel 1827</t>
         </is>
@@ -5196,12 +6096,17 @@
           <t>ms280_6_175</t>
         </is>
       </c>
-      <c r="B181" s="5" t="inlineStr">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ms280_6_175</t>
+        </is>
+      </c>
+      <c r="C181" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J181" s="6" t="n"/>
+      <c r="K181" s="6" t="n"/>
     </row>
     <row r="182" ht="16" customHeight="1" s="4">
       <c r="A182" t="inlineStr">
@@ -5209,31 +6114,36 @@
           <t>ms280_6_176</t>
         </is>
       </c>
-      <c r="B182" s="5" t="inlineStr">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ms280_6_176</t>
+        </is>
+      </c>
+      <c r="C182" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="D182" t="n">
         <v>1828</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>1</v>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>5</v>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H182" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5245,26 +6155,31 @@
           <t>ms280_6_177</t>
         </is>
       </c>
-      <c r="B183" s="5" t="inlineStr">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ms280_6_177</t>
+        </is>
+      </c>
+      <c r="C183" s="5" t="inlineStr">
         <is>
           <t>Circolare a stampa di $OranjeWI</t>
         </is>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>1817</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>12</v>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>11</v>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>$OranjeWI</t>
         </is>
@@ -5276,17 +6191,22 @@
           <t>ms280_6_178</t>
         </is>
       </c>
-      <c r="B184" s="5" t="inlineStr">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ms280_6_178</t>
+        </is>
+      </c>
+      <c r="C184" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
+      <c r="I184" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5298,7 +6218,12 @@
           <t>ms280_6_179</t>
         </is>
       </c>
-      <c r="B185" s="5" t="inlineStr">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ms280_6_179</t>
+        </is>
+      </c>
+      <c r="C185" s="5" t="inlineStr">
         <is>
           <t>Memoria sui negoziati con il Regno di Sardegna</t>
         </is>
@@ -5310,7 +6235,12 @@
           <t>ms280_6_180</t>
         </is>
       </c>
-      <c r="B186" s="5" t="inlineStr">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ms280_6_179</t>
+        </is>
+      </c>
+      <c r="C186" s="5" t="inlineStr">
         <is>
           <t>Memoria sui negoziati con il Regno di Sardegna</t>
         </is>
@@ -5322,7 +6252,12 @@
           <t>ms280_6_181</t>
         </is>
       </c>
-      <c r="B187" s="5" t="inlineStr">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ms280_6_179</t>
+        </is>
+      </c>
+      <c r="C187" s="5" t="inlineStr">
         <is>
           <t>Memoria sui negoziati con il Regno di Sardegna</t>
         </is>
@@ -5334,7 +6269,12 @@
           <t>ms280_6_182</t>
         </is>
       </c>
-      <c r="B188" s="5" t="inlineStr">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ms280_6_179</t>
+        </is>
+      </c>
+      <c r="C188" s="5" t="inlineStr">
         <is>
           <t>Memoria sui negoziati con il Regno di Sardegna</t>
         </is>
@@ -5346,31 +6286,36 @@
           <t>ms280_6_183</t>
         </is>
       </c>
-      <c r="B189" s="5" t="inlineStr">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ms280_6_183</t>
+        </is>
+      </c>
+      <c r="C189" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg</t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="D189" t="n">
         <v>1828</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>1</v>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>22</v>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H189" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5382,7 +6327,12 @@
           <t>ms280_6_184</t>
         </is>
       </c>
-      <c r="B190" s="5" t="inlineStr">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ms280_6_184</t>
+        </is>
+      </c>
+      <c r="C190" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -5394,12 +6344,17 @@
           <t>ms280_6_185</t>
         </is>
       </c>
-      <c r="B191" s="5" t="inlineStr">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ms280_6_185</t>
+        </is>
+      </c>
+      <c r="C191" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J191" s="6" t="n"/>
+      <c r="K191" s="6" t="n"/>
     </row>
     <row r="192" ht="16" customHeight="1" s="4">
       <c r="A192" t="inlineStr">
@@ -5407,31 +6362,36 @@
           <t>ms280_6_186</t>
         </is>
       </c>
-      <c r="B192" s="5" t="inlineStr">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ms280_6_186</t>
+        </is>
+      </c>
+      <c r="C192" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C192" t="n">
+      <c r="D192" t="n">
         <v>1828</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>1</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>26</v>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H192" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5443,31 +6403,36 @@
           <t>ms280_6_187</t>
         </is>
       </c>
-      <c r="B193" s="5" t="inlineStr">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ms280_6_186</t>
+        </is>
+      </c>
+      <c r="C193" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C193" t="n">
+      <c r="D193" t="n">
         <v>1828</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>1</v>
       </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
         <v>26</v>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H193" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5479,12 +6444,17 @@
           <t>ms280_6_188</t>
         </is>
       </c>
-      <c r="B194" s="5" t="inlineStr">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ms280_6_188</t>
+        </is>
+      </c>
+      <c r="C194" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J194" s="6" t="n"/>
+      <c r="K194" s="6" t="n"/>
     </row>
     <row r="195" ht="16" customHeight="1" s="4">
       <c r="A195" t="inlineStr">
@@ -5492,31 +6462,36 @@
           <t>ms280_6_189</t>
         </is>
       </c>
-      <c r="B195" s="5" t="inlineStr">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ms280_6_189</t>
+        </is>
+      </c>
+      <c r="C195" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C195" t="n">
+      <c r="D195" t="n">
         <v>1828</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>1</v>
       </c>
-      <c r="E195" t="n">
+      <c r="F195" t="n">
         <v>26</v>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H195" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5528,31 +6503,36 @@
           <t>ms280_6_190</t>
         </is>
       </c>
-      <c r="B196" s="5" t="inlineStr">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ms280_6_189</t>
+        </is>
+      </c>
+      <c r="C196" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C196" t="n">
+      <c r="D196" t="n">
         <v>1828</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>1</v>
       </c>
-      <c r="E196" t="n">
+      <c r="F196" t="n">
         <v>26</v>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H196" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5564,31 +6544,36 @@
           <t>ms280_6_191</t>
         </is>
       </c>
-      <c r="B197" s="5" t="inlineStr">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ms280_6_191</t>
+        </is>
+      </c>
+      <c r="C197" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C197" t="n">
+      <c r="D197" t="n">
         <v>1828</v>
       </c>
-      <c r="D197" t="n">
+      <c r="E197" t="n">
         <v>1</v>
       </c>
-      <c r="E197" t="n">
+      <c r="F197" t="n">
         <v>28</v>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H197" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5600,7 +6585,12 @@
           <t>ms280_6_192</t>
         </is>
       </c>
-      <c r="B198" s="5" t="inlineStr">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ms280_6_192</t>
+        </is>
+      </c>
+      <c r="C198" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -5612,12 +6602,17 @@
           <t>ms280_6_193</t>
         </is>
       </c>
-      <c r="B199" s="5" t="inlineStr">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ms280_6_193</t>
+        </is>
+      </c>
+      <c r="C199" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J199" s="6" t="n"/>
+      <c r="K199" s="6" t="n"/>
     </row>
     <row r="200" ht="16" customHeight="1" s="4">
       <c r="A200" t="inlineStr">
@@ -5625,31 +6620,36 @@
           <t>ms280_6_194</t>
         </is>
       </c>
-      <c r="B200" s="5" t="inlineStr">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ms280_6_194</t>
+        </is>
+      </c>
+      <c r="C200" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C200" t="n">
+      <c r="D200" t="n">
         <v>1828</v>
       </c>
-      <c r="D200" t="n">
+      <c r="E200" t="n">
         <v>3</v>
       </c>
-      <c r="E200" t="n">
+      <c r="F200" t="n">
         <v>15</v>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H200" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5661,31 +6661,36 @@
           <t>ms280_6_195</t>
         </is>
       </c>
-      <c r="B201" s="5" t="inlineStr">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ms280_6_194</t>
+        </is>
+      </c>
+      <c r="C201" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C201" t="n">
+      <c r="D201" t="n">
         <v>1828</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>15</v>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H201" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5697,31 +6702,36 @@
           <t>ms280_6_196</t>
         </is>
       </c>
-      <c r="B202" s="5" t="inlineStr">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ms280_6_194</t>
+        </is>
+      </c>
+      <c r="C202" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C202" t="n">
+      <c r="D202" t="n">
         <v>1828</v>
       </c>
-      <c r="D202" t="n">
+      <c r="E202" t="n">
         <v>3</v>
       </c>
-      <c r="E202" t="n">
+      <c r="F202" t="n">
         <v>15</v>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H202" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5733,31 +6743,36 @@
           <t>ms280_6_197</t>
         </is>
       </c>
-      <c r="B203" s="5" t="inlineStr">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ms280_6_194</t>
+        </is>
+      </c>
+      <c r="C203" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C203" t="n">
+      <c r="D203" t="n">
         <v>1828</v>
       </c>
-      <c r="D203" t="n">
+      <c r="E203" t="n">
         <v>3</v>
       </c>
-      <c r="E203" t="n">
+      <c r="F203" t="n">
         <v>15</v>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H203" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5769,31 +6784,36 @@
           <t>ms280_6_198</t>
         </is>
       </c>
-      <c r="B204" s="5" t="inlineStr">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ms280_6_198</t>
+        </is>
+      </c>
+      <c r="C204" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>1828</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>3</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>25</v>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H204" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5805,31 +6825,36 @@
           <t>ms280_6_198b</t>
         </is>
       </c>
-      <c r="B205" s="5" t="inlineStr">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ms280_6_198b</t>
+        </is>
+      </c>
+      <c r="C205" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C205" t="n">
+      <c r="D205" t="n">
         <v>1828</v>
       </c>
-      <c r="D205" t="n">
+      <c r="E205" t="n">
         <v>3</v>
       </c>
-      <c r="E205" t="n">
+      <c r="F205" t="n">
         <v>13</v>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="I205" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5841,7 +6866,12 @@
           <t>ms280_6_199</t>
         </is>
       </c>
-      <c r="B206" s="5" t="inlineStr">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ms280_6_199</t>
+        </is>
+      </c>
+      <c r="C206" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -5853,12 +6883,17 @@
           <t>ms280_6_200</t>
         </is>
       </c>
-      <c r="B207" s="5" t="inlineStr">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ms280_6_200</t>
+        </is>
+      </c>
+      <c r="C207" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J207" s="6" t="n"/>
+      <c r="K207" s="6" t="n"/>
     </row>
     <row r="208" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A208" t="inlineStr">
@@ -5866,12 +6901,17 @@
           <t>ms280_6_201</t>
         </is>
       </c>
-      <c r="B208" s="5" t="inlineStr">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ms280_6_200</t>
+        </is>
+      </c>
+      <c r="C208" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J208" s="6" t="n"/>
+      <c r="K208" s="6" t="n"/>
     </row>
     <row r="209" ht="16" customHeight="1" s="4">
       <c r="A209" t="inlineStr">
@@ -5879,31 +6919,36 @@
           <t>ms280_6_202</t>
         </is>
       </c>
-      <c r="B209" s="5" t="inlineStr">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ms280_6_202</t>
+        </is>
+      </c>
+      <c r="C209" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C209" t="n">
+      <c r="D209" t="n">
         <v>1828</v>
       </c>
-      <c r="D209" t="n">
+      <c r="E209" t="n">
         <v>5</v>
       </c>
-      <c r="E209" t="n">
+      <c r="F209" t="n">
         <v>15</v>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H209" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5915,7 +6960,12 @@
           <t>ms280_6_203</t>
         </is>
       </c>
-      <c r="B210" s="5" t="inlineStr">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ms280_6_203</t>
+        </is>
+      </c>
+      <c r="C210" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -5927,7 +6977,12 @@
           <t>ms280_6_204</t>
         </is>
       </c>
-      <c r="B211" s="5" t="inlineStr">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ms280_6_204</t>
+        </is>
+      </c>
+      <c r="C211" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5939,31 +6994,36 @@
           <t>ms280_6_205</t>
         </is>
       </c>
-      <c r="B212" s="5" t="inlineStr">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ms280_6_205</t>
+        </is>
+      </c>
+      <c r="C212" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C212" t="n">
+      <c r="D212" t="n">
         <v>1828</v>
       </c>
-      <c r="D212" t="n">
+      <c r="E212" t="n">
         <v>6</v>
       </c>
-      <c r="E212" t="n">
+      <c r="F212" t="n">
         <v>3</v>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H212" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -5975,12 +7035,17 @@
           <t>ms280_6_206</t>
         </is>
       </c>
-      <c r="B213" s="5" t="inlineStr">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ms280_6_206</t>
+        </is>
+      </c>
+      <c r="C213" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J213" s="6" t="n"/>
+      <c r="K213" s="6" t="n"/>
     </row>
     <row r="214" ht="16" customHeight="1" s="4">
       <c r="A214" t="inlineStr">
@@ -5988,31 +7053,36 @@
           <t>ms280_6_207</t>
         </is>
       </c>
-      <c r="B214" s="5" t="inlineStr">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ms280_6_207</t>
+        </is>
+      </c>
+      <c r="C214" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C214" t="n">
+      <c r="D214" t="n">
         <v>1828</v>
       </c>
-      <c r="D214" t="n">
+      <c r="E214" t="n">
         <v>6</v>
       </c>
-      <c r="E214" t="n">
+      <c r="F214" t="n">
         <v>15</v>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
+      <c r="I214" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6024,31 +7094,36 @@
           <t>ms280_6_208</t>
         </is>
       </c>
-      <c r="B215" s="5" t="inlineStr">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ms280_6_207</t>
+        </is>
+      </c>
+      <c r="C215" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C215" t="n">
+      <c r="D215" t="n">
         <v>1828</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>6</v>
       </c>
-      <c r="E215" t="n">
+      <c r="F215" t="n">
         <v>15</v>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
+      <c r="I215" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6060,31 +7135,36 @@
           <t>ms280_6_209</t>
         </is>
       </c>
-      <c r="B216" s="5" t="inlineStr">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ms280_6_207</t>
+        </is>
+      </c>
+      <c r="C216" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C216" t="n">
+      <c r="D216" t="n">
         <v>1828</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" t="n">
+      <c r="F216" t="n">
         <v>15</v>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
+      <c r="I216" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6096,7 +7176,12 @@
           <t>ms280_6_210</t>
         </is>
       </c>
-      <c r="B217" s="5" t="inlineStr">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ms280_6_210</t>
+        </is>
+      </c>
+      <c r="C217" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -6108,31 +7193,36 @@
           <t>ms280_6_211</t>
         </is>
       </c>
-      <c r="B218" s="5" t="inlineStr">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ms280_6_211</t>
+        </is>
+      </c>
+      <c r="C218" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C218" t="n">
+      <c r="D218" t="n">
         <v>1828</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" t="n">
+      <c r="F218" t="n">
         <v>25</v>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H218" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6144,36 +7234,41 @@
           <t>ms280_6_212</t>
         </is>
       </c>
-      <c r="B219" s="5" t="inlineStr">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ms280_6_212</t>
+        </is>
+      </c>
+      <c r="C219" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C219" t="n">
+      <c r="D219" t="n">
         <v>1828</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>8</v>
       </c>
-      <c r="E219" t="n">
+      <c r="F219" t="n">
         <v>21</v>
       </c>
-      <c r="F219" s="2" t="inlineStr">
+      <c r="G219" s="2" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>$Limburg</t>
-        </is>
-      </c>
-      <c r="J219" s="6" t="n"/>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>$Limburg</t>
+        </is>
+      </c>
+      <c r="K219" s="6" t="n"/>
     </row>
     <row r="220" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A220" t="inlineStr">
@@ -6181,36 +7276,41 @@
           <t>ms280_6_213</t>
         </is>
       </c>
-      <c r="B220" s="5" t="inlineStr">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ms280_6_212</t>
+        </is>
+      </c>
+      <c r="C220" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>1828</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>8</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>21</v>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="G220" s="2" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>$Limburg</t>
-        </is>
-      </c>
-      <c r="J220" s="6" t="n"/>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>$Limburg</t>
+        </is>
+      </c>
+      <c r="K220" s="6" t="n"/>
     </row>
     <row r="221" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A221" t="inlineStr">
@@ -6218,36 +7318,41 @@
           <t>ms280_6_214</t>
         </is>
       </c>
-      <c r="B221" s="5" t="inlineStr">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ms280_6_214</t>
+        </is>
+      </c>
+      <c r="C221" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C221" t="n">
+      <c r="D221" t="n">
         <v>1828</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>10</v>
       </c>
-      <c r="E221" t="n">
+      <c r="F221" t="n">
         <v>18</v>
       </c>
-      <c r="F221" s="2" t="inlineStr">
+      <c r="G221" s="2" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>$Limburg</t>
-        </is>
-      </c>
-      <c r="J221" s="6" t="n"/>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>$Limburg</t>
+        </is>
+      </c>
+      <c r="K221" s="6" t="n"/>
     </row>
     <row r="222" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A222" t="inlineStr">
@@ -6255,12 +7360,17 @@
           <t>ms280_6_215</t>
         </is>
       </c>
-      <c r="B222" s="5" t="inlineStr">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ms280_6_215</t>
+        </is>
+      </c>
+      <c r="C222" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J222" s="6" t="n"/>
+      <c r="K222" s="6" t="n"/>
     </row>
     <row r="223" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A223" t="inlineStr">
@@ -6268,36 +7378,41 @@
           <t>ms280_6_216</t>
         </is>
       </c>
-      <c r="B223" s="5" t="inlineStr">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ms280_6_216</t>
+        </is>
+      </c>
+      <c r="C223" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C223" t="n">
+      <c r="D223" t="n">
         <v>1828</v>
       </c>
-      <c r="D223" t="n">
+      <c r="E223" t="n">
         <v>10</v>
       </c>
-      <c r="E223" t="n">
+      <c r="F223" t="n">
         <v>20</v>
       </c>
-      <c r="F223" s="2" t="inlineStr">
+      <c r="G223" s="2" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>$Limburg</t>
-        </is>
-      </c>
-      <c r="J223" s="6" t="n"/>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>$Limburg</t>
+        </is>
+      </c>
+      <c r="K223" s="6" t="n"/>
     </row>
     <row r="224" ht="16" customHeight="1" s="4">
       <c r="A224" t="inlineStr">
@@ -6305,7 +7420,12 @@
           <t>ms280_6_217</t>
         </is>
       </c>
-      <c r="B224" s="5" t="inlineStr">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ms280_6_217</t>
+        </is>
+      </c>
+      <c r="C224" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -6317,26 +7437,31 @@
           <t>ms280_6_218</t>
         </is>
       </c>
-      <c r="B225" s="1" t="inlineStr">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ms280_6_218</t>
+        </is>
+      </c>
+      <c r="C225" s="1" t="inlineStr">
         <is>
           <t>Discorso dal Trono di $OranjeWI (a stampa)</t>
         </is>
       </c>
-      <c r="C225" t="n">
+      <c r="D225" t="n">
         <v>1828</v>
       </c>
-      <c r="D225" t="n">
+      <c r="E225" t="n">
         <v>10</v>
       </c>
-      <c r="E225" t="n">
+      <c r="F225" t="n">
         <v>20</v>
       </c>
-      <c r="F225" s="2" t="inlineStr">
+      <c r="G225" s="2" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>$OranjeWI</t>
         </is>
@@ -6348,12 +7473,17 @@
           <t>ms280_6_219</t>
         </is>
       </c>
-      <c r="B226" s="5" t="inlineStr">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ms280_6_219</t>
+        </is>
+      </c>
+      <c r="C226" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J226" s="6" t="n"/>
+      <c r="K226" s="6" t="n"/>
     </row>
     <row r="227" ht="16" customHeight="1" s="4">
       <c r="A227" t="inlineStr">
@@ -6361,31 +7491,36 @@
           <t>ms280_6_220</t>
         </is>
       </c>
-      <c r="B227" s="5" t="inlineStr">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ms280_6_220</t>
+        </is>
+      </c>
+      <c r="C227" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C227" t="n">
+      <c r="D227" t="n">
         <v>1828</v>
       </c>
-      <c r="D227" t="n">
+      <c r="E227" t="n">
         <v>10</v>
       </c>
-      <c r="E227" t="n">
+      <c r="F227" t="n">
         <v>25</v>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H227" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6397,31 +7532,36 @@
           <t>ms280_6_221</t>
         </is>
       </c>
-      <c r="B228" s="5" t="inlineStr">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ms280_6_220</t>
+        </is>
+      </c>
+      <c r="C228" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C228" t="n">
+      <c r="D228" t="n">
         <v>1828</v>
       </c>
-      <c r="D228" t="n">
+      <c r="E228" t="n">
         <v>10</v>
       </c>
-      <c r="E228" t="n">
+      <c r="F228" t="n">
         <v>25</v>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H228" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6433,31 +7573,36 @@
           <t>ms280_6_222</t>
         </is>
       </c>
-      <c r="B229" s="5" t="inlineStr">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ms280_6_222</t>
+        </is>
+      </c>
+      <c r="C229" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C229" t="n">
+      <c r="D229" t="n">
         <v>1828</v>
       </c>
-      <c r="D229" t="n">
+      <c r="E229" t="n">
         <v>9</v>
       </c>
-      <c r="E229" t="n">
+      <c r="F229" t="n">
         <v>29</v>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
+      <c r="I229" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6469,7 +7614,12 @@
           <t>ms280_6_223</t>
         </is>
       </c>
-      <c r="B230" s="5" t="inlineStr">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ms280_6_223</t>
+        </is>
+      </c>
+      <c r="C230" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -6481,12 +7631,17 @@
           <t>ms280_6_224</t>
         </is>
       </c>
-      <c r="B231" s="5" t="inlineStr">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ms280_6_224</t>
+        </is>
+      </c>
+      <c r="C231" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J231" s="6" t="n"/>
+      <c r="K231" s="6" t="n"/>
     </row>
     <row r="232" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A232" t="inlineStr">
@@ -6494,12 +7649,17 @@
           <t>ms280_6_225</t>
         </is>
       </c>
-      <c r="B232" s="5" t="inlineStr">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ms280_6_224</t>
+        </is>
+      </c>
+      <c r="C232" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J232" s="6" t="n"/>
+      <c r="K232" s="6" t="n"/>
     </row>
     <row r="233" ht="16" customHeight="1" s="4">
       <c r="A233" t="inlineStr">
@@ -6507,31 +7667,36 @@
           <t>ms280_6_226</t>
         </is>
       </c>
-      <c r="B233" s="5" t="inlineStr">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ms280_6_226</t>
+        </is>
+      </c>
+      <c r="C233" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C233" t="n">
+      <c r="D233" t="n">
         <v>1828</v>
       </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
         <v>10</v>
       </c>
-      <c r="E233" t="n">
+      <c r="F233" t="n">
         <v>25</v>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H233" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6543,12 +7708,17 @@
           <t>ms280_6_227</t>
         </is>
       </c>
-      <c r="B234" s="5" t="inlineStr">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ms280_6_227</t>
+        </is>
+      </c>
+      <c r="C234" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J234" s="6" t="n"/>
+      <c r="K234" s="6" t="n"/>
     </row>
     <row r="235" ht="12.75" customHeight="1" s="4">
       <c r="A235" t="inlineStr">
@@ -6556,31 +7726,36 @@
           <t>ms280_6_228</t>
         </is>
       </c>
-      <c r="B235" s="5" t="inlineStr">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ms280_6_228</t>
+        </is>
+      </c>
+      <c r="C235" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C235" t="n">
+      <c r="D235" t="n">
         <v>1828</v>
       </c>
-      <c r="D235" t="n">
+      <c r="E235" t="n">
         <v>11</v>
       </c>
-      <c r="E235" t="n">
+      <c r="F235" t="n">
         <v>29</v>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H235" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6592,7 +7767,12 @@
           <t>ms280_6_229</t>
         </is>
       </c>
-      <c r="B236" s="5" t="inlineStr">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ms280_6_229</t>
+        </is>
+      </c>
+      <c r="C236" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -6604,12 +7784,17 @@
           <t>ms280_6_230</t>
         </is>
       </c>
-      <c r="B237" s="5" t="inlineStr">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ms280_6_230</t>
+        </is>
+      </c>
+      <c r="C237" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J237" s="6" t="n"/>
+      <c r="K237" s="6" t="n"/>
     </row>
     <row r="238" ht="12.75" customHeight="1" s="4">
       <c r="A238" t="inlineStr">
@@ -6617,31 +7802,36 @@
           <t>ms280_6_231</t>
         </is>
       </c>
-      <c r="B238" s="5" t="inlineStr">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ms280_6_231</t>
+        </is>
+      </c>
+      <c r="C238" s="5" t="inlineStr">
         <is>
           <t>Lettera del $Soelen al $Limburg con parti cifrate</t>
         </is>
       </c>
-      <c r="C238" t="n">
+      <c r="D238" t="n">
         <v>1828</v>
       </c>
-      <c r="D238" t="n">
+      <c r="E238" t="n">
         <v>12</v>
       </c>
-      <c r="E238" t="n">
+      <c r="F238" t="n">
         <v>25</v>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>Bruxelles</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>$Soelen</t>
-        </is>
-      </c>
       <c r="H238" t="inlineStr">
+        <is>
+          <t>$Soelen</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
         <is>
           <t>$Limburg</t>
         </is>
@@ -6653,7 +7843,12 @@
           <t>ms280_6_232</t>
         </is>
       </c>
-      <c r="B239" s="5" t="inlineStr">
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ms280_6_232</t>
+        </is>
+      </c>
+      <c r="C239" s="5" t="inlineStr">
         <is>
           <t>Nota di ricezione dei dispacci diplomatici</t>
         </is>
@@ -6665,36 +7860,41 @@
           <t>ms280_6_233</t>
         </is>
       </c>
-      <c r="B240" s="5" t="inlineStr">
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ms280_6_233</t>
+        </is>
+      </c>
+      <c r="C240" s="5" t="inlineStr">
         <is>
           <t>Lettera di $LeClercq al $Limburg</t>
         </is>
       </c>
-      <c r="C240" t="n">
+      <c r="D240" t="n">
         <v>1828</v>
       </c>
-      <c r="D240" t="n">
+      <c r="E240" t="n">
         <v>12</v>
       </c>
-      <c r="E240" t="n">
+      <c r="F240" t="n">
         <v>30</v>
       </c>
-      <c r="F240" s="2" t="inlineStr">
+      <c r="G240" s="2" t="inlineStr">
         <is>
           <t>Gand</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>$LeClercq</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>$Limburg</t>
-        </is>
-      </c>
-      <c r="J240" s="6" t="n"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>$Limburg</t>
+        </is>
+      </c>
+      <c r="K240" s="6" t="n"/>
     </row>
     <row r="241" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A241" s="2" t="inlineStr">
@@ -6702,12 +7902,17 @@
           <t>ms280_6_234</t>
         </is>
       </c>
-      <c r="B241" s="3" t="inlineStr">
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>ms280_6_234</t>
+        </is>
+      </c>
+      <c r="C241" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J241" s="6" t="n"/>
+      <c r="K241" s="6" t="n"/>
     </row>
     <row r="242" ht="16" customFormat="1" customHeight="1" s="2">
       <c r="A242" s="2" t="inlineStr">
@@ -6715,12 +7920,17 @@
           <t>ms280_6_235</t>
         </is>
       </c>
-      <c r="B242" s="3" t="inlineStr">
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ms280_6_234</t>
+        </is>
+      </c>
+      <c r="C242" s="3" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="J242" s="6" t="n"/>
+      <c r="K242" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
